--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -911,14 +911,49 @@
           <t>11/26/2025</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>First National Bank</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Legacy Core</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>Premium</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -666,15 +666,31 @@
       <c r="U2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="n"/>
-      <c r="B3" s="12" t="n"/>
-      <c r="C3" s="12" t="n"/>
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>First Bank</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>16665</t>
+        </is>
+      </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
           <t>FISB</t>
         </is>
       </c>
-      <c r="E3" s="13" t="n"/>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>Legacy Core</t>
+        </is>
+      </c>
       <c r="F3" s="13" t="inlineStr">
         <is>
           <t>PaymentsOne Debit</t>
@@ -682,22 +698,22 @@
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>Premium</t>
         </is>
       </c>
       <c r="H3" s="13" t="inlineStr">
         <is>
-          <t>Offshore</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="I3" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1000</t>
         </is>
       </c>
       <c r="J3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -718,16 +718,56 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="n"/>
-      <c r="B4" s="12" t="n"/>
-      <c r="C4" s="12" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="16" t="n"/>
-      <c r="G4" s="16" t="n"/>
-      <c r="H4" s="16" t="n"/>
-      <c r="I4" s="12" t="n"/>
-      <c r="J4" s="12" t="n"/>
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>National Bank</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>101010</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
+        <is>
+          <t>Legacy Core</t>
+        </is>
+      </c>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="G4" s="16" t="inlineStr">
+        <is>
+          <t>Premium</t>
+        </is>
+      </c>
+      <c r="H4" s="16" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="J4" s="12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="n"/>

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -770,12 +770,36 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="16" t="n"/>
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>98765</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>Legacy Core</t>
+        </is>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
       <c r="G5" s="16" t="n"/>
       <c r="H5" s="16" t="n"/>
       <c r="I5" s="12" t="n"/>

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -806,12 +806,36 @@
       <c r="J5" s="12" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="12" t="n"/>
-      <c r="C6" s="12" t="n"/>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="16" t="n"/>
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Ban</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>88350</t>
+        </is>
+      </c>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>Legacy Core</t>
+        </is>
+      </c>
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>Debit</t>
+        </is>
+      </c>
       <c r="G6" s="16" t="n"/>
       <c r="H6" s="16" t="n"/>
       <c r="I6" s="12" t="n"/>

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -842,12 +842,36 @@
       <c r="J6" s="12" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="12" t="n"/>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="16" t="n"/>
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>neww</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>99428</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>Legacy Core</t>
+        </is>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
+        <is>
+          <t>Debit</t>
+        </is>
+      </c>
       <c r="G7" s="16" t="n"/>
       <c r="H7" s="16" t="n"/>
       <c r="I7" s="12" t="n"/>

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -844,7 +844,7 @@
     <row r="7">
       <c r="A7" s="12" t="inlineStr">
         <is>
-          <t>11/26/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="B7" s="12" t="inlineStr">

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -754,16 +754,56 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="16" t="n"/>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="12" t="n"/>
-      <c r="J5" s="12" t="n"/>
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>10/16/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>YYY</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>ABX097</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="I5" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J5" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="n"/>

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -578,7 +578,7 @@
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Wave 10/16/2025</t>
+          <t>Hotcarding Spreadsheet - Wave 01/26/2025</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -704,7 +704,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>10/16/2025</t>
+          <t>01/26/2025</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">

--- a/python/Hotcard Wave Spreadsheet.xlsx
+++ b/python/Hotcard Wave Spreadsheet.xlsx
@@ -578,7 +578,7 @@
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Wave 01/26/2025</t>
+          <t>Hotcarding Spreadsheet - Wave 05/26/2025</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -806,16 +806,56 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="12" t="n"/>
-      <c r="C6" s="12" t="n"/>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="13" t="n"/>
-      <c r="F6" s="16" t="n"/>
-      <c r="G6" s="16" t="n"/>
-      <c r="H6" s="16" t="n"/>
-      <c r="I6" s="12" t="n"/>
-      <c r="J6" s="12" t="n"/>
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>05/26/2025</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>YYY</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>X097</t>
+        </is>
+      </c>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="G6" s="16" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H6" s="16" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="I6" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J6" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="n"/>
